--- a/web/Statistik/Team/Xceldemo5.xlsx
+++ b/web/Statistik/Team/Xceldemo5.xlsx
@@ -6,22 +6,20 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Valentino Wuwungan" r:id="rId3" sheetId="1"/>
-    <sheet name="Andakara Prastawa Dhyaksa" r:id="rId4" sheetId="2"/>
-    <sheet name="Rizky Liyandra" r:id="rId5" sheetId="3"/>
-    <sheet name="Dominique Williams" r:id="rId6" sheetId="4"/>
-    <sheet name="Abraham Damar Grahita" r:id="rId7" sheetId="5"/>
+    <sheet name="Otong" r:id="rId3" sheetId="1"/>
+    <sheet name="Iting" r:id="rId4" sheetId="2"/>
+    <sheet name="Atang" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>ID_Pemain</t>
   </si>
   <si>
-    <t>37</t>
+    <t>201</t>
   </si>
   <si>
     <t>Dont Delete This!</t>
@@ -108,16 +106,10 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
 </sst>
 </file>
@@ -676,280 +668,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="20.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
-    <col min="6" max="6" width="8.0" customWidth="true"/>
-    <col min="7" max="7" width="8.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
-    <col min="9" max="9" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="8.0" customWidth="true"/>
-    <col min="11" max="11" width="8.0" customWidth="true"/>
-    <col min="12" max="12" width="8.0" customWidth="true"/>
-    <col min="13" max="13" width="8.0" customWidth="true"/>
-    <col min="14" max="14" width="8.0" customWidth="true"/>
-    <col min="15" max="15" width="8.0" customWidth="true"/>
-    <col min="16" max="16" width="8.0" customWidth="true"/>
-    <col min="17" max="17" width="8.0" customWidth="true"/>
-    <col min="18" max="18" width="8.0" customWidth="true"/>
-    <col min="19" max="19" width="8.0" customWidth="true"/>
-    <col min="20" max="20" width="8.0" customWidth="true"/>
-    <col min="21" max="21" width="8.0" customWidth="true"/>
-    <col min="22" max="22" width="8.0" customWidth="true"/>
-    <col min="23" max="23" width="8.0" customWidth="true"/>
-    <col min="24" max="24" width="8.0" customWidth="true"/>
-    <col min="25" max="25" width="8.0" customWidth="true"/>
-    <col min="26" max="26" width="8.0" customWidth="true"/>
-    <col min="27" max="27" width="8.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="20.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
-    <col min="6" max="6" width="8.0" customWidth="true"/>
-    <col min="7" max="7" width="8.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
-    <col min="9" max="9" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="8.0" customWidth="true"/>
-    <col min="11" max="11" width="8.0" customWidth="true"/>
-    <col min="12" max="12" width="8.0" customWidth="true"/>
-    <col min="13" max="13" width="8.0" customWidth="true"/>
-    <col min="14" max="14" width="8.0" customWidth="true"/>
-    <col min="15" max="15" width="8.0" customWidth="true"/>
-    <col min="16" max="16" width="8.0" customWidth="true"/>
-    <col min="17" max="17" width="8.0" customWidth="true"/>
-    <col min="18" max="18" width="8.0" customWidth="true"/>
-    <col min="19" max="19" width="8.0" customWidth="true"/>
-    <col min="20" max="20" width="8.0" customWidth="true"/>
-    <col min="21" max="21" width="8.0" customWidth="true"/>
-    <col min="22" max="22" width="8.0" customWidth="true"/>
-    <col min="23" max="23" width="8.0" customWidth="true"/>
-    <col min="24" max="24" width="8.0" customWidth="true"/>
-    <col min="25" max="25" width="8.0" customWidth="true"/>
-    <col min="26" max="26" width="8.0" customWidth="true"/>
-    <col min="27" max="27" width="8.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>